--- a/docs/assets/disciplinas/LOM3201.xlsx
+++ b/docs/assets/disciplinas/LOM3201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar a biofísica segundo uma abordagem molecular. Mostrar como os conceitos e técnicas da física dos sistemas microscópicos podem ser usados para o estudo e o entendimento da estrutura, dos níveis energéticos, da dinâmica e das interações das moléculas biológicas.</t>
+    <t>2166002 - Sandra Giacomin Schneider</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>2166002 - Sandra Giacomin Schneider</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Biofísica de moléculas biológicas</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Estrutura molecular dos sistemas biológicos Cinética e termodinâmica de processos biológicos Física de macromoléculas. Física de proteínas. Física de ácidos nucléicos. Biossíntese de proteínas. Estrutura das membranas biológicas. Processos moleculares de transformação de energia em sistemas biológicos</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas; demonstrações com o uso de programas de computador e discussão de listas de exercícios</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Três provas escritas: conceitos P1, P2 e P3. Conceito Final = (P1 + P2 + 2P3)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ATKINS, P. W. Físico-Química, 6a Edição, Vols. 1-3. Livros Técnicos e Científicos, 1999. VOLKENSTEIN, M. V. Biophysics. AIP, 1995.¨ Glaser, R. Biophysics. Springer-Verlag, 2001. DAUNE, M., DUFFIN, W. J. AND BLOW, D. Molecular Biophysics: Structures in Motion. Oxford University Press, 1999. CANTOR, C. R. AND SCHIMMEL, P. R. Biophysical Chemistry: Techniques for the Study of Biological Structure and Function. W. H. Freeman, 1980.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
